--- a/Jogos_do_Dia/2023-07-19_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-07-19_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="93">
   <si>
     <t>League</t>
   </si>
@@ -139,6 +139,9 @@
     <t>USA USL Championship</t>
   </si>
   <si>
+    <t>Colombia Categoria Primera A</t>
+  </si>
+  <si>
     <t>07:00:00</t>
   </si>
   <si>
@@ -166,94 +169,130 @@
     <t>20:00:00</t>
   </si>
   <si>
+    <t>21:30:00</t>
+  </si>
+  <si>
+    <t>22:00:00</t>
+  </si>
+  <si>
+    <t>Jeonnam Dragons</t>
+  </si>
+  <si>
     <t>Seongnam</t>
   </si>
   <si>
-    <t>Jeonnam Dragons</t>
-  </si>
-  <si>
     <t>Sangju Sangmu</t>
   </si>
   <si>
     <t>Valmiera / BSS</t>
   </si>
   <si>
+    <t>Dinamo Tbilisi</t>
+  </si>
+  <si>
     <t>Lillestrøm</t>
   </si>
   <si>
-    <t>Dinamo Tbilisi</t>
+    <t>Ferencváros</t>
   </si>
   <si>
     <t>Qarabağ</t>
   </si>
   <si>
-    <t>Ferencváros</t>
-  </si>
-  <si>
     <t>Al Ahly</t>
   </si>
   <si>
+    <t>Swift Hesperange</t>
+  </si>
+  <si>
     <t>Ludogorets</t>
   </si>
   <si>
-    <t>Swift Hesperange</t>
-  </si>
-  <si>
     <t>Larne</t>
   </si>
   <si>
+    <t>Novorizontino</t>
+  </si>
+  <si>
     <t>Atlético GO</t>
   </si>
   <si>
-    <t>Novorizontino</t>
-  </si>
-  <si>
     <t>Detroit City FC</t>
   </si>
   <si>
+    <t>Ceará</t>
+  </si>
+  <si>
+    <t>Sport Recife</t>
+  </si>
+  <si>
+    <t>Avaí</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>Santa Fe</t>
+  </si>
+  <si>
+    <t>Ansan Greeners</t>
+  </si>
+  <si>
     <t>Gyeongnam</t>
   </si>
   <si>
-    <t>Ansan Greeners</t>
-  </si>
-  <si>
     <t>Asan Mugunghwa</t>
   </si>
   <si>
     <t>Olimpija</t>
   </si>
   <si>
+    <t>Astana</t>
+  </si>
+  <si>
     <t>Aalesund</t>
   </si>
   <si>
-    <t>Astana</t>
+    <t>KÍ</t>
   </si>
   <si>
     <t>Lincoln Red Imps</t>
   </si>
   <si>
-    <t>KÍ</t>
-  </si>
-  <si>
     <t>Haras El Hodood</t>
   </si>
   <si>
+    <t>Slovan Bratislava</t>
+  </si>
+  <si>
     <t>Ballkani</t>
   </si>
   <si>
-    <t>Slovan Bratislava</t>
-  </si>
-  <si>
     <t>HJK</t>
   </si>
   <si>
+    <t>Londrina</t>
+  </si>
+  <si>
     <t>Mirassol</t>
   </si>
   <si>
-    <t>Londrina</t>
-  </si>
-  <si>
     <t>Louisville City</t>
+  </si>
+  <si>
+    <t>Vila Nova</t>
+  </si>
+  <si>
+    <t>Vitória</t>
+  </si>
+  <si>
+    <t>Sampaio Corrêa</t>
+  </si>
+  <si>
+    <t>Guarani</t>
+  </si>
+  <si>
+    <t>Jaguares de Córdoba</t>
   </si>
 </sst>
 </file>
@@ -615,7 +654,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI16"/>
+  <dimension ref="A1:AI21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -736,103 +775,103 @@
         <v>45126</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2">
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="G2">
-        <v>2.52</v>
+        <v>1.67</v>
       </c>
       <c r="H2">
-        <v>3.15</v>
+        <v>3.48</v>
       </c>
       <c r="I2">
-        <v>2.45</v>
+        <v>4.88</v>
       </c>
       <c r="J2">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K2">
-        <v>7</v>
+        <v>11.5</v>
       </c>
       <c r="L2">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="M2">
-        <v>2.95</v>
+        <v>3.3</v>
       </c>
       <c r="N2">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="O2">
-        <v>1.73</v>
+        <v>1.82</v>
       </c>
       <c r="P2">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="Q2">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="R2">
         <v>1.83</v>
       </c>
       <c r="S2">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="T2">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
       <c r="U2">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="V2">
-        <v>1.38</v>
+        <v>2.1</v>
       </c>
       <c r="W2">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="X2">
-        <v>2.11</v>
+        <v>0.22</v>
       </c>
       <c r="Y2">
-        <v>1.49</v>
+        <v>1.64</v>
       </c>
       <c r="Z2">
-        <v>1.49</v>
+        <v>1.42</v>
       </c>
       <c r="AA2">
-        <v>2.98</v>
+        <v>3.06</v>
       </c>
       <c r="AB2">
-        <v>1.69</v>
+        <v>1.54</v>
       </c>
       <c r="AC2">
-        <v>7.3</v>
+        <v>7.9</v>
       </c>
       <c r="AD2">
-        <v>2.57</v>
+        <v>2.92</v>
       </c>
       <c r="AE2">
-        <v>1.2</v>
+        <v>1.37</v>
       </c>
       <c r="AF2">
-        <v>1.39</v>
+        <v>1.68</v>
       </c>
       <c r="AG2">
-        <v>1.69</v>
+        <v>2.14</v>
       </c>
       <c r="AH2">
-        <v>1.95</v>
+        <v>2.88</v>
       </c>
       <c r="AI2">
-        <v>2.88</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -843,103 +882,103 @@
         <v>45126</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3">
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="G3">
-        <v>1.99</v>
+        <v>2.66</v>
       </c>
       <c r="H3">
-        <v>3.39</v>
+        <v>3.05</v>
       </c>
       <c r="I3">
-        <v>3.21</v>
+        <v>2.59</v>
       </c>
       <c r="J3">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K3">
-        <v>11.5</v>
+        <v>7</v>
       </c>
       <c r="L3">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="M3">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="N3">
-        <v>1.97</v>
+        <v>2.1</v>
       </c>
       <c r="O3">
-        <v>1.83</v>
+        <v>1.68</v>
       </c>
       <c r="P3">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="Q3">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="R3">
         <v>1.83</v>
       </c>
       <c r="S3">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="T3">
-        <v>1.18</v>
+        <v>1.4</v>
       </c>
       <c r="U3">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="V3">
-        <v>2.1</v>
+        <v>1.38</v>
       </c>
       <c r="W3">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="X3">
-        <v>0.22</v>
+        <v>2.11</v>
       </c>
       <c r="Y3">
-        <v>1.64</v>
+        <v>1.49</v>
       </c>
       <c r="Z3">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="AA3">
-        <v>3.06</v>
+        <v>2.98</v>
       </c>
       <c r="AB3">
-        <v>1.54</v>
+        <v>1.69</v>
       </c>
       <c r="AC3">
-        <v>7.9</v>
+        <v>7.3</v>
       </c>
       <c r="AD3">
-        <v>2.92</v>
+        <v>2.57</v>
       </c>
       <c r="AE3">
-        <v>1.37</v>
+        <v>1.2</v>
       </c>
       <c r="AF3">
-        <v>1.68</v>
+        <v>1.39</v>
       </c>
       <c r="AG3">
-        <v>2.14</v>
+        <v>1.69</v>
       </c>
       <c r="AH3">
+        <v>1.95</v>
+      </c>
+      <c r="AI3">
         <v>2.88</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -950,16 +989,16 @@
         <v>45126</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4">
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="G4">
         <v>1.65</v>
@@ -1057,25 +1096,25 @@
         <v>45126</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G5">
-        <v>4.9</v>
+        <v>4.33</v>
       </c>
       <c r="H5">
-        <v>3.92</v>
+        <v>4</v>
       </c>
       <c r="I5">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="J5">
         <v>1.04</v>
@@ -1090,10 +1129,10 @@
         <v>3.9</v>
       </c>
       <c r="N5">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O5">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="P5">
         <v>1.34</v>
@@ -1132,242 +1171,242 @@
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>3.53</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:35">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="2">
         <v>45126</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G6">
-        <v>1.42</v>
+        <v>2.3</v>
       </c>
       <c r="H6">
-        <v>4.85</v>
+        <v>3.2</v>
       </c>
       <c r="I6">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="J6">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K6">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="L6">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="M6">
-        <v>3.75</v>
+        <v>2.85</v>
       </c>
       <c r="N6">
-        <v>1.84</v>
+        <v>2.3</v>
       </c>
       <c r="O6">
-        <v>2.04</v>
+        <v>1.56</v>
       </c>
       <c r="P6">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="R6">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S6">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T6">
-        <v>1.12</v>
+        <v>1.3</v>
       </c>
       <c r="U6">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="V6">
-        <v>2.38</v>
+        <v>1.57</v>
       </c>
       <c r="W6">
-        <v>1.71</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>2.91</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>1.24</v>
+        <v>1.79</v>
       </c>
       <c r="AC6">
-        <v>12.7</v>
+        <v>7.7</v>
       </c>
       <c r="AD6">
-        <v>4.95</v>
+        <v>2.51</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AF6">
-        <v>1.24</v>
+        <v>1.44</v>
       </c>
       <c r="AG6">
-        <v>1.43</v>
+        <v>1.95</v>
       </c>
       <c r="AH6">
-        <v>1.74</v>
+        <v>2.35</v>
       </c>
       <c r="AI6">
-        <v>2.23</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="7" spans="1:35">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" s="2">
         <v>45126</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="G7">
-        <v>2.31</v>
+        <v>1.47</v>
       </c>
       <c r="H7">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="I7">
-        <v>3.2</v>
+        <v>6.75</v>
       </c>
       <c r="J7">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K7">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="L7">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="M7">
-        <v>2.85</v>
+        <v>3.75</v>
       </c>
       <c r="N7">
-        <v>2.2</v>
+        <v>1.66</v>
       </c>
       <c r="O7">
-        <v>1.53</v>
+        <v>2.25</v>
       </c>
       <c r="P7">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="Q7">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="R7">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S7">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T7">
-        <v>1.3</v>
+        <v>1.12</v>
       </c>
       <c r="U7">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="V7">
-        <v>1.57</v>
+        <v>2.38</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>1.71</v>
       </c>
       <c r="X7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>2.91</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>12.7</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>4.95</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AG7">
-        <v>1.95</v>
+        <v>1.43</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1378,70 +1417,70 @@
         <v>45126</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="G8">
-        <v>1.1</v>
+        <v>1.22</v>
       </c>
       <c r="H8">
-        <v>9.4</v>
+        <v>5.5</v>
       </c>
       <c r="I8">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="K8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L8">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="M8">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="N8">
-        <v>1.43</v>
+        <v>1.76</v>
       </c>
       <c r="O8">
-        <v>2.5</v>
+        <v>1.96</v>
       </c>
       <c r="P8">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="Q8">
-        <v>3.8</v>
+        <v>3.05</v>
       </c>
       <c r="R8">
         <v>2.55</v>
       </c>
       <c r="S8">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="T8">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="U8">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="V8">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="W8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1453,28 +1492,28 @@
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG8">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1485,103 +1524,103 @@
         <v>45126</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F9" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G9">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="H9">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="I9">
-        <v>16.75</v>
+        <v>17</v>
       </c>
       <c r="J9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="K9">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L9">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="M9">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="N9">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="O9">
-        <v>2.11</v>
+        <v>2.63</v>
       </c>
       <c r="P9">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="Q9">
-        <v>3.05</v>
+        <v>3.8</v>
       </c>
       <c r="R9">
         <v>2.55</v>
       </c>
       <c r="S9">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="T9">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="U9">
+        <v>1.06</v>
+      </c>
+      <c r="V9">
+        <v>6</v>
+      </c>
+      <c r="W9">
+        <v>3</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
         <v>1.09</v>
       </c>
-      <c r="V9">
-        <v>3.6</v>
-      </c>
-      <c r="W9">
-        <v>1</v>
-      </c>
-      <c r="X9">
-        <v>1</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
       <c r="AC9">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG9">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -1592,25 +1631,25 @@
         <v>45126</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10">
         <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G10">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="H10">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="I10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J10">
         <v>1.02</v>
@@ -1625,10 +1664,10 @@
         <v>4.75</v>
       </c>
       <c r="N10">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="O10">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="P10">
         <v>1.28</v>
@@ -1699,103 +1738,103 @@
         <v>45126</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F11" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G11">
-        <v>1.32</v>
+        <v>4.25</v>
       </c>
       <c r="H11">
-        <v>5.1</v>
+        <v>3.75</v>
       </c>
       <c r="I11">
-        <v>9.6</v>
+        <v>1.75</v>
       </c>
       <c r="J11">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="K11">
         <v>10</v>
       </c>
       <c r="L11">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M11">
-        <v>4</v>
+        <v>3.64</v>
       </c>
       <c r="N11">
-        <v>1.61</v>
+        <v>1.71</v>
       </c>
       <c r="O11">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="P11">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="Q11">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="R11">
+        <v>1.72</v>
+      </c>
+      <c r="S11">
+        <v>2.07</v>
+      </c>
+      <c r="T11">
+        <v>1.98</v>
+      </c>
+      <c r="U11">
+        <v>1.27</v>
+      </c>
+      <c r="V11">
+        <v>1.23</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>2.79</v>
+      </c>
+      <c r="AC11">
+        <v>9.4</v>
+      </c>
+      <c r="AD11">
+        <v>1.59</v>
+      </c>
+      <c r="AE11">
+        <v>1.23</v>
+      </c>
+      <c r="AF11">
+        <v>1.44</v>
+      </c>
+      <c r="AG11">
+        <v>1.83</v>
+      </c>
+      <c r="AH11">
         <v>2.35</v>
       </c>
-      <c r="S11">
-        <v>1.52</v>
-      </c>
-      <c r="T11">
-        <v>1.05</v>
-      </c>
-      <c r="U11">
-        <v>1.13</v>
-      </c>
-      <c r="V11">
-        <v>3.8</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>3</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>1.75</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
       <c r="AI11">
-        <v>0</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -1806,70 +1845,70 @@
         <v>45126</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F12" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G12">
-        <v>4.1</v>
+        <v>1.28</v>
       </c>
       <c r="H12">
-        <v>3.82</v>
+        <v>5.5</v>
       </c>
       <c r="I12">
-        <v>1.81</v>
+        <v>9</v>
       </c>
       <c r="J12">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="K12">
         <v>10</v>
       </c>
       <c r="L12">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M12">
-        <v>3.64</v>
+        <v>4</v>
       </c>
       <c r="N12">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="O12">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="P12">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="Q12">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="R12">
-        <v>1.72</v>
+        <v>2.35</v>
       </c>
       <c r="S12">
-        <v>2.07</v>
+        <v>1.52</v>
       </c>
       <c r="T12">
-        <v>1.98</v>
+        <v>1.05</v>
       </c>
       <c r="U12">
-        <v>1.27</v>
+        <v>1.13</v>
       </c>
       <c r="V12">
-        <v>1.23</v>
+        <v>3.8</v>
       </c>
       <c r="W12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1881,28 +1920,28 @@
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>13.25</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AG12">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -1913,25 +1952,25 @@
         <v>45126</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G13">
-        <v>3.44</v>
+        <v>3.2</v>
       </c>
       <c r="H13">
-        <v>3.22</v>
+        <v>3.1</v>
       </c>
       <c r="I13">
-        <v>2.19</v>
+        <v>2.25</v>
       </c>
       <c r="J13">
         <v>1.09</v>
@@ -1946,10 +1985,10 @@
         <v>2.79</v>
       </c>
       <c r="N13">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O13">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="P13">
         <v>1.52</v>
@@ -1988,28 +2027,28 @@
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AG13">
         <v>1.95</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -2020,25 +2059,25 @@
         <v>45126</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D14">
         <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F14" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G14">
-        <v>2.19</v>
+        <v>1.46</v>
       </c>
       <c r="H14">
-        <v>3.22</v>
+        <v>3.9</v>
       </c>
       <c r="I14">
-        <v>3.44</v>
+        <v>6.75</v>
       </c>
       <c r="J14">
         <v>1.1</v>
@@ -2050,13 +2089,13 @@
         <v>1.44</v>
       </c>
       <c r="M14">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="N14">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="O14">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P14">
         <v>1.5</v>
@@ -2065,58 +2104,58 @@
         <v>2.5</v>
       </c>
       <c r="R14">
-        <v>2</v>
+        <v>2.63</v>
       </c>
       <c r="S14">
-        <v>1.71</v>
+        <v>1.44</v>
       </c>
       <c r="T14">
-        <v>1.32</v>
+        <v>1.08</v>
       </c>
       <c r="U14">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="V14">
+        <v>2.55</v>
+      </c>
+      <c r="W14">
+        <v>1.75</v>
+      </c>
+      <c r="X14">
+        <v>0.44</v>
+      </c>
+      <c r="Y14">
+        <v>1.99</v>
+      </c>
+      <c r="Z14">
+        <v>1.26</v>
+      </c>
+      <c r="AA14">
+        <v>3.25</v>
+      </c>
+      <c r="AB14">
+        <v>1.2</v>
+      </c>
+      <c r="AC14">
+        <v>11</v>
+      </c>
+      <c r="AD14">
+        <v>5.75</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>1.2</v>
+      </c>
+      <c r="AG14">
+        <v>1.33</v>
+      </c>
+      <c r="AH14">
         <v>1.58</v>
       </c>
-      <c r="W14">
-        <v>2</v>
-      </c>
-      <c r="X14">
-        <v>1.25</v>
-      </c>
-      <c r="Y14">
-        <v>1.74</v>
-      </c>
-      <c r="Z14">
-        <v>1.33</v>
-      </c>
-      <c r="AA14">
-        <v>3.07</v>
-      </c>
-      <c r="AB14">
-        <v>1.6</v>
-      </c>
-      <c r="AC14">
-        <v>7.5</v>
-      </c>
-      <c r="AD14">
-        <v>2.9</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>1.26</v>
-      </c>
-      <c r="AG14">
-        <v>1.49</v>
-      </c>
-      <c r="AH14">
-        <v>1.95</v>
-      </c>
       <c r="AI14">
-        <v>2.4</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -2127,25 +2166,25 @@
         <v>45126</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D15">
         <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F15" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G15">
-        <v>1.41</v>
+        <v>2.2</v>
       </c>
       <c r="H15">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="I15">
-        <v>8.6</v>
+        <v>3</v>
       </c>
       <c r="J15">
         <v>1.1</v>
@@ -2157,10 +2196,10 @@
         <v>1.44</v>
       </c>
       <c r="M15">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="N15">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="O15">
         <v>1.5</v>
@@ -2172,58 +2211,58 @@
         <v>2.5</v>
       </c>
       <c r="R15">
-        <v>2.63</v>
+        <v>2</v>
       </c>
       <c r="S15">
-        <v>1.44</v>
+        <v>1.71</v>
       </c>
       <c r="T15">
-        <v>1.08</v>
+        <v>1.32</v>
       </c>
       <c r="U15">
+        <v>1.36</v>
+      </c>
+      <c r="V15">
+        <v>1.58</v>
+      </c>
+      <c r="W15">
+        <v>2</v>
+      </c>
+      <c r="X15">
         <v>1.25</v>
       </c>
-      <c r="V15">
-        <v>2.55</v>
-      </c>
-      <c r="W15">
-        <v>1.75</v>
-      </c>
-      <c r="X15">
-        <v>0.44</v>
-      </c>
       <c r="Y15">
-        <v>1.99</v>
+        <v>1.74</v>
       </c>
       <c r="Z15">
+        <v>1.33</v>
+      </c>
+      <c r="AA15">
+        <v>3.07</v>
+      </c>
+      <c r="AB15">
+        <v>1.6</v>
+      </c>
+      <c r="AC15">
+        <v>7.5</v>
+      </c>
+      <c r="AD15">
+        <v>2.9</v>
+      </c>
+      <c r="AE15">
+        <v>1.15</v>
+      </c>
+      <c r="AF15">
         <v>1.26</v>
       </c>
-      <c r="AA15">
-        <v>3.25</v>
-      </c>
-      <c r="AB15">
-        <v>1.2</v>
-      </c>
-      <c r="AC15">
-        <v>11</v>
-      </c>
-      <c r="AD15">
-        <v>5.75</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <v>1.2</v>
-      </c>
       <c r="AG15">
-        <v>1.33</v>
+        <v>1.49</v>
       </c>
       <c r="AH15">
-        <v>1.58</v>
+        <v>1.95</v>
       </c>
       <c r="AI15">
-        <v>1.98</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -2234,25 +2273,25 @@
         <v>45126</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F16" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G16">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="H16">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I16">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J16">
         <v>1.04</v>
@@ -2267,7 +2306,7 @@
         <v>3.63</v>
       </c>
       <c r="N16">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="O16">
         <v>1.87</v>
@@ -2309,28 +2348,563 @@
         <v>2.27</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AI16">
         <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="2">
+        <v>45126</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17">
+        <v>2.35</v>
+      </c>
+      <c r="H17">
+        <v>3.1</v>
+      </c>
+      <c r="I17">
+        <v>2.8</v>
+      </c>
+      <c r="J17">
+        <v>1.1</v>
+      </c>
+      <c r="K17">
+        <v>6.5</v>
+      </c>
+      <c r="L17">
+        <v>1.45</v>
+      </c>
+      <c r="M17">
+        <v>2.65</v>
+      </c>
+      <c r="N17">
+        <v>2.35</v>
+      </c>
+      <c r="O17">
+        <v>1.53</v>
+      </c>
+      <c r="P17">
+        <v>1.53</v>
+      </c>
+      <c r="Q17">
+        <v>2.38</v>
+      </c>
+      <c r="R17">
+        <v>2</v>
+      </c>
+      <c r="S17">
+        <v>1.73</v>
+      </c>
+      <c r="T17">
+        <v>1.36</v>
+      </c>
+      <c r="U17">
+        <v>1.37</v>
+      </c>
+      <c r="V17">
+        <v>1.52</v>
+      </c>
+      <c r="W17">
+        <v>1.25</v>
+      </c>
+      <c r="X17">
+        <v>1.56</v>
+      </c>
+      <c r="Y17">
+        <v>1.56</v>
+      </c>
+      <c r="Z17">
+        <v>1.74</v>
+      </c>
+      <c r="AA17">
+        <v>3.3</v>
+      </c>
+      <c r="AB17">
+        <v>1.67</v>
+      </c>
+      <c r="AC17">
+        <v>7.5</v>
+      </c>
+      <c r="AD17">
+        <v>2.75</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>1.23</v>
+      </c>
+      <c r="AG17">
+        <v>1.43</v>
+      </c>
+      <c r="AH17">
+        <v>1.8</v>
+      </c>
+      <c r="AI17">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="2">
+        <v>45126</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18">
+        <v>1.68</v>
+      </c>
+      <c r="H18">
+        <v>3.4</v>
+      </c>
+      <c r="I18">
+        <v>4.75</v>
+      </c>
+      <c r="J18">
+        <v>1.1</v>
+      </c>
+      <c r="K18">
+        <v>6.5</v>
+      </c>
+      <c r="L18">
+        <v>1.44</v>
+      </c>
+      <c r="M18">
+        <v>2.62</v>
+      </c>
+      <c r="N18">
+        <v>2.35</v>
+      </c>
+      <c r="O18">
+        <v>1.53</v>
+      </c>
+      <c r="P18">
+        <v>1.53</v>
+      </c>
+      <c r="Q18">
+        <v>2.38</v>
+      </c>
+      <c r="R18">
+        <v>2.25</v>
+      </c>
+      <c r="S18">
+        <v>1.57</v>
+      </c>
+      <c r="T18">
+        <v>1.15</v>
+      </c>
+      <c r="U18">
+        <v>1.31</v>
+      </c>
+      <c r="V18">
+        <v>2.05</v>
+      </c>
+      <c r="W18">
+        <v>2.78</v>
+      </c>
+      <c r="X18">
+        <v>1.44</v>
+      </c>
+      <c r="Y18">
+        <v>1.61</v>
+      </c>
+      <c r="Z18">
+        <v>1.3</v>
+      </c>
+      <c r="AA18">
+        <v>2.91</v>
+      </c>
+      <c r="AB18">
+        <v>1.33</v>
+      </c>
+      <c r="AC18">
+        <v>8.5</v>
+      </c>
+      <c r="AD18">
+        <v>4.33</v>
+      </c>
+      <c r="AE18">
+        <v>1.22</v>
+      </c>
+      <c r="AF18">
+        <v>1.42</v>
+      </c>
+      <c r="AG18">
+        <v>1.83</v>
+      </c>
+      <c r="AH18">
+        <v>2.3</v>
+      </c>
+      <c r="AI18">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="2">
+        <v>45126</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19">
+        <v>2.2</v>
+      </c>
+      <c r="H19">
+        <v>3.1</v>
+      </c>
+      <c r="I19">
+        <v>3.1</v>
+      </c>
+      <c r="J19">
+        <v>1.11</v>
+      </c>
+      <c r="K19">
+        <v>6</v>
+      </c>
+      <c r="L19">
+        <v>1.5</v>
+      </c>
+      <c r="M19">
+        <v>2.5</v>
+      </c>
+      <c r="N19">
+        <v>2.45</v>
+      </c>
+      <c r="O19">
+        <v>1.5</v>
+      </c>
+      <c r="P19">
+        <v>1.57</v>
+      </c>
+      <c r="Q19">
+        <v>2.25</v>
+      </c>
+      <c r="R19">
+        <v>2.1</v>
+      </c>
+      <c r="S19">
+        <v>1.67</v>
+      </c>
+      <c r="T19">
+        <v>1.31</v>
+      </c>
+      <c r="U19">
+        <v>1.37</v>
+      </c>
+      <c r="V19">
+        <v>1.58</v>
+      </c>
+      <c r="W19">
+        <v>0.75</v>
+      </c>
+      <c r="X19">
+        <v>0.88</v>
+      </c>
+      <c r="Y19">
+        <v>1.64</v>
+      </c>
+      <c r="Z19">
+        <v>1.2</v>
+      </c>
+      <c r="AA19">
+        <v>2.84</v>
+      </c>
+      <c r="AB19">
+        <v>1.55</v>
+      </c>
+      <c r="AC19">
+        <v>7.5</v>
+      </c>
+      <c r="AD19">
+        <v>3.1</v>
+      </c>
+      <c r="AE19">
+        <v>1.18</v>
+      </c>
+      <c r="AF19">
+        <v>1.35</v>
+      </c>
+      <c r="AG19">
+        <v>1.63</v>
+      </c>
+      <c r="AH19">
+        <v>2.1</v>
+      </c>
+      <c r="AI19">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="2">
+        <v>45126</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20">
+        <v>2.79</v>
+      </c>
+      <c r="H20">
+        <v>2.79</v>
+      </c>
+      <c r="I20">
+        <v>2.55</v>
+      </c>
+      <c r="J20">
+        <v>1.1</v>
+      </c>
+      <c r="K20">
+        <v>6.5</v>
+      </c>
+      <c r="L20">
+        <v>1.48</v>
+      </c>
+      <c r="M20">
+        <v>2.48</v>
+      </c>
+      <c r="N20">
+        <v>2.44</v>
+      </c>
+      <c r="O20">
+        <v>1.49</v>
+      </c>
+      <c r="P20">
+        <v>1.57</v>
+      </c>
+      <c r="Q20">
+        <v>2.25</v>
+      </c>
+      <c r="R20">
+        <v>2.1</v>
+      </c>
+      <c r="S20">
+        <v>1.67</v>
+      </c>
+      <c r="T20">
+        <v>1.44</v>
+      </c>
+      <c r="U20">
+        <v>1.37</v>
+      </c>
+      <c r="V20">
+        <v>1.43</v>
+      </c>
+      <c r="W20">
+        <v>0.63</v>
+      </c>
+      <c r="X20">
+        <v>0.78</v>
+      </c>
+      <c r="Y20">
+        <v>1.49</v>
+      </c>
+      <c r="Z20">
+        <v>1.27</v>
+      </c>
+      <c r="AA20">
+        <v>2.76</v>
+      </c>
+      <c r="AB20">
+        <v>1.7</v>
+      </c>
+      <c r="AC20">
+        <v>7</v>
+      </c>
+      <c r="AD20">
+        <v>2.7</v>
+      </c>
+      <c r="AE20">
+        <v>1.25</v>
+      </c>
+      <c r="AF20">
+        <v>1.47</v>
+      </c>
+      <c r="AG20">
+        <v>1.85</v>
+      </c>
+      <c r="AH20">
+        <v>2.45</v>
+      </c>
+      <c r="AI20">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="2">
+        <v>45126</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21">
+        <v>1.87</v>
+      </c>
+      <c r="H21">
+        <v>3.22</v>
+      </c>
+      <c r="I21">
+        <v>3.78</v>
+      </c>
+      <c r="J21">
+        <v>1.05</v>
+      </c>
+      <c r="K21">
+        <v>10</v>
+      </c>
+      <c r="L21">
+        <v>1.33</v>
+      </c>
+      <c r="M21">
+        <v>3.25</v>
+      </c>
+      <c r="N21">
+        <v>1.93</v>
+      </c>
+      <c r="O21">
+        <v>1.81</v>
+      </c>
+      <c r="P21">
+        <v>1.39</v>
+      </c>
+      <c r="Q21">
+        <v>2.75</v>
+      </c>
+      <c r="R21">
+        <v>2</v>
+      </c>
+      <c r="S21">
+        <v>1.78</v>
+      </c>
+      <c r="T21">
+        <v>1.17</v>
+      </c>
+      <c r="U21">
+        <v>1.29</v>
+      </c>
+      <c r="V21">
+        <v>2.2</v>
+      </c>
+      <c r="W21">
+        <v>1.9</v>
+      </c>
+      <c r="X21">
+        <v>0.3</v>
+      </c>
+      <c r="Y21">
+        <v>1.89</v>
+      </c>
+      <c r="Z21">
+        <v>0.97</v>
+      </c>
+      <c r="AA21">
+        <v>2.86</v>
+      </c>
+      <c r="AB21">
+        <v>1.29</v>
+      </c>
+      <c r="AC21">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD21">
+        <v>4.97</v>
+      </c>
+      <c r="AE21">
+        <v>1.31</v>
+      </c>
+      <c r="AF21">
+        <v>1.54</v>
+      </c>
+      <c r="AG21">
+        <v>2</v>
+      </c>
+      <c r="AH21">
+        <v>2.44</v>
+      </c>
+      <c r="AI21">
+        <v>3.3</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-07-19_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-07-19_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -787,13 +787,13 @@
         <v>73</v>
       </c>
       <c r="G2">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="H2">
-        <v>3.48</v>
+        <v>3.41</v>
       </c>
       <c r="I2">
-        <v>4.88</v>
+        <v>3.65</v>
       </c>
       <c r="J2">
         <v>1.05</v>
@@ -808,10 +808,10 @@
         <v>3.3</v>
       </c>
       <c r="N2">
-        <v>1.88</v>
+        <v>1.74</v>
       </c>
       <c r="O2">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="P2">
         <v>1.38</v>
@@ -894,13 +894,13 @@
         <v>74</v>
       </c>
       <c r="G3">
-        <v>2.66</v>
+        <v>2.43</v>
       </c>
       <c r="H3">
-        <v>3.05</v>
+        <v>3.22</v>
       </c>
       <c r="I3">
-        <v>2.59</v>
+        <v>2.33</v>
       </c>
       <c r="J3">
         <v>1.08</v>
@@ -915,10 +915,10 @@
         <v>2.95</v>
       </c>
       <c r="N3">
-        <v>2.1</v>
+        <v>1.87</v>
       </c>
       <c r="O3">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="P3">
         <v>1.48</v>
@@ -1643,13 +1643,13 @@
         <v>81</v>
       </c>
       <c r="G10">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="H10">
         <v>7</v>
       </c>
       <c r="I10">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J10">
         <v>1.02</v>
@@ -1664,10 +1664,10 @@
         <v>4.75</v>
       </c>
       <c r="N10">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="O10">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="P10">
         <v>1.28</v>
@@ -2071,13 +2071,13 @@
         <v>85</v>
       </c>
       <c r="G14">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="H14">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I14">
-        <v>6.75</v>
+        <v>6.5</v>
       </c>
       <c r="J14">
         <v>1.1</v>
@@ -2092,10 +2092,10 @@
         <v>2.65</v>
       </c>
       <c r="N14">
-        <v>2.37</v>
+        <v>2.15</v>
       </c>
       <c r="O14">
-        <v>1.53</v>
+        <v>1.64</v>
       </c>
       <c r="P14">
         <v>1.5</v>
@@ -2181,10 +2181,10 @@
         <v>2.2</v>
       </c>
       <c r="H15">
-        <v>3.2</v>
+        <v>2.85</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="J15">
         <v>1.1</v>
@@ -2199,10 +2199,10 @@
         <v>2.62</v>
       </c>
       <c r="N15">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O15">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P15">
         <v>1.5</v>
@@ -2285,13 +2285,13 @@
         <v>87</v>
       </c>
       <c r="G16">
-        <v>2.85</v>
+        <v>2.67</v>
       </c>
       <c r="H16">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="I16">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J16">
         <v>1.04</v>
@@ -2306,10 +2306,10 @@
         <v>3.63</v>
       </c>
       <c r="N16">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="O16">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="P16">
         <v>1.36</v>
@@ -2395,10 +2395,10 @@
         <v>2.35</v>
       </c>
       <c r="H17">
-        <v>3.1</v>
+        <v>2.85</v>
       </c>
       <c r="I17">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="J17">
         <v>1.1</v>
@@ -2413,10 +2413,10 @@
         <v>2.65</v>
       </c>
       <c r="N17">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O17">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="P17">
         <v>1.53</v>
@@ -2499,13 +2499,13 @@
         <v>89</v>
       </c>
       <c r="G18">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="H18">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I18">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J18">
         <v>1.1</v>
@@ -2520,10 +2520,10 @@
         <v>2.62</v>
       </c>
       <c r="N18">
-        <v>2.35</v>
+        <v>2.33</v>
       </c>
       <c r="O18">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="P18">
         <v>1.53</v>
@@ -2609,10 +2609,10 @@
         <v>2.2</v>
       </c>
       <c r="H19">
-        <v>3.1</v>
+        <v>2.85</v>
       </c>
       <c r="I19">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J19">
         <v>1.11</v>
@@ -2627,10 +2627,10 @@
         <v>2.5</v>
       </c>
       <c r="N19">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="O19">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="P19">
         <v>1.57</v>
@@ -2713,13 +2713,13 @@
         <v>91</v>
       </c>
       <c r="G20">
-        <v>2.79</v>
+        <v>2.55</v>
       </c>
       <c r="H20">
-        <v>2.79</v>
+        <v>2.85</v>
       </c>
       <c r="I20">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="J20">
         <v>1.1</v>
@@ -2734,10 +2734,10 @@
         <v>2.48</v>
       </c>
       <c r="N20">
-        <v>2.44</v>
+        <v>2.37</v>
       </c>
       <c r="O20">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="P20">
         <v>1.57</v>
@@ -2820,13 +2820,13 @@
         <v>92</v>
       </c>
       <c r="G21">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="H21">
-        <v>3.22</v>
+        <v>3.25</v>
       </c>
       <c r="I21">
-        <v>3.78</v>
+        <v>3.8</v>
       </c>
       <c r="J21">
         <v>1.05</v>
@@ -2841,10 +2841,10 @@
         <v>3.25</v>
       </c>
       <c r="N21">
-        <v>1.93</v>
+        <v>2.4</v>
       </c>
       <c r="O21">
-        <v>1.81</v>
+        <v>1.58</v>
       </c>
       <c r="P21">
         <v>1.39</v>

--- a/Jogos_do_Dia/2023-07-19_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-07-19_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -175,30 +175,30 @@
     <t>22:00:00</t>
   </si>
   <si>
+    <t>Seongnam</t>
+  </si>
+  <si>
     <t>Jeonnam Dragons</t>
   </si>
   <si>
-    <t>Seongnam</t>
-  </si>
-  <si>
     <t>Sangju Sangmu</t>
   </si>
   <si>
     <t>Valmiera / BSS</t>
   </si>
   <si>
+    <t>Lillestrøm</t>
+  </si>
+  <si>
+    <t>Ferencváros</t>
+  </si>
+  <si>
+    <t>Qarabağ</t>
+  </si>
+  <si>
     <t>Dinamo Tbilisi</t>
   </si>
   <si>
-    <t>Lillestrøm</t>
-  </si>
-  <si>
-    <t>Ferencváros</t>
-  </si>
-  <si>
-    <t>Qarabağ</t>
-  </si>
-  <si>
     <t>Al Ahly</t>
   </si>
   <si>
@@ -211,54 +211,54 @@
     <t>Larne</t>
   </si>
   <si>
+    <t>Atlético GO</t>
+  </si>
+  <si>
     <t>Novorizontino</t>
   </si>
   <si>
-    <t>Atlético GO</t>
-  </si>
-  <si>
     <t>Detroit City FC</t>
   </si>
   <si>
+    <t>Sport Recife</t>
+  </si>
+  <si>
+    <t>Avaí</t>
+  </si>
+  <si>
     <t>Ceará</t>
   </si>
   <si>
-    <t>Sport Recife</t>
-  </si>
-  <si>
-    <t>Avaí</t>
-  </si>
-  <si>
     <t>ABC</t>
   </si>
   <si>
     <t>Santa Fe</t>
   </si>
   <si>
+    <t>Gyeongnam</t>
+  </si>
+  <si>
     <t>Ansan Greeners</t>
   </si>
   <si>
-    <t>Gyeongnam</t>
-  </si>
-  <si>
     <t>Asan Mugunghwa</t>
   </si>
   <si>
     <t>Olimpija</t>
   </si>
   <si>
+    <t>Aalesund</t>
+  </si>
+  <si>
+    <t>KÍ</t>
+  </si>
+  <si>
+    <t>Lincoln Red Imps</t>
+  </si>
+  <si>
     <t>Astana</t>
   </si>
   <si>
-    <t>Aalesund</t>
-  </si>
-  <si>
-    <t>KÍ</t>
-  </si>
-  <si>
-    <t>Lincoln Red Imps</t>
-  </si>
-  <si>
     <t>Haras El Hodood</t>
   </si>
   <si>
@@ -271,22 +271,22 @@
     <t>HJK</t>
   </si>
   <si>
+    <t>Mirassol</t>
+  </si>
+  <si>
     <t>Londrina</t>
   </si>
   <si>
-    <t>Mirassol</t>
-  </si>
-  <si>
     <t>Louisville City</t>
   </si>
   <si>
+    <t>Vitória</t>
+  </si>
+  <si>
+    <t>Sampaio Corrêa</t>
+  </si>
+  <si>
     <t>Vila Nova</t>
-  </si>
-  <si>
-    <t>Vitória</t>
-  </si>
-  <si>
-    <t>Sampaio Corrêa</t>
   </si>
   <si>
     <t>Guarani</t>
@@ -787,91 +787,91 @@
         <v>73</v>
       </c>
       <c r="G2">
-        <v>1.72</v>
+        <v>2.7</v>
       </c>
       <c r="H2">
-        <v>3.41</v>
+        <v>3.2</v>
       </c>
       <c r="I2">
-        <v>3.65</v>
+        <v>2.6</v>
       </c>
       <c r="J2">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K2">
-        <v>11.5</v>
+        <v>7</v>
       </c>
       <c r="L2">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="M2">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="N2">
-        <v>1.74</v>
+        <v>2.1</v>
       </c>
       <c r="O2">
-        <v>1.86</v>
+        <v>1.61</v>
       </c>
       <c r="P2">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="Q2">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="R2">
         <v>1.83</v>
       </c>
       <c r="S2">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="T2">
+        <v>1.4</v>
+      </c>
+      <c r="U2">
+        <v>1.28</v>
+      </c>
+      <c r="V2">
+        <v>1.38</v>
+      </c>
+      <c r="W2">
         <v>1.18</v>
       </c>
-      <c r="U2">
-        <v>1.23</v>
-      </c>
-      <c r="V2">
-        <v>2.1</v>
-      </c>
-      <c r="W2">
-        <v>1.5</v>
-      </c>
       <c r="X2">
-        <v>0.22</v>
+        <v>2</v>
       </c>
       <c r="Y2">
-        <v>1.64</v>
+        <v>1.49</v>
       </c>
       <c r="Z2">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="AA2">
-        <v>3.06</v>
+        <v>2.98</v>
       </c>
       <c r="AB2">
-        <v>1.54</v>
+        <v>1.69</v>
       </c>
       <c r="AC2">
-        <v>7.9</v>
+        <v>7.3</v>
       </c>
       <c r="AD2">
-        <v>2.92</v>
+        <v>2.57</v>
       </c>
       <c r="AE2">
-        <v>1.37</v>
+        <v>1.2</v>
       </c>
       <c r="AF2">
-        <v>1.68</v>
+        <v>1.39</v>
       </c>
       <c r="AG2">
-        <v>2.14</v>
+        <v>1.69</v>
       </c>
       <c r="AH2">
+        <v>1.95</v>
+      </c>
+      <c r="AI2">
         <v>2.88</v>
-      </c>
-      <c r="AI2">
-        <v>4.2</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -894,91 +894,91 @@
         <v>74</v>
       </c>
       <c r="G3">
-        <v>2.43</v>
+        <v>1.7</v>
       </c>
       <c r="H3">
-        <v>3.22</v>
+        <v>3.7</v>
       </c>
       <c r="I3">
-        <v>2.33</v>
+        <v>4.8</v>
       </c>
       <c r="J3">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K3">
-        <v>7</v>
+        <v>11.5</v>
       </c>
       <c r="L3">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="M3">
-        <v>2.95</v>
+        <v>3.3</v>
       </c>
       <c r="N3">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="O3">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="P3">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="Q3">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="R3">
         <v>1.83</v>
       </c>
       <c r="S3">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="T3">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
       <c r="U3">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="V3">
-        <v>1.38</v>
+        <v>2.1</v>
       </c>
       <c r="W3">
-        <v>1.2</v>
+        <v>1.64</v>
       </c>
       <c r="X3">
-        <v>2.11</v>
+        <v>0.2</v>
       </c>
       <c r="Y3">
-        <v>1.49</v>
+        <v>1.64</v>
       </c>
       <c r="Z3">
-        <v>1.49</v>
+        <v>1.42</v>
       </c>
       <c r="AA3">
-        <v>2.98</v>
+        <v>3.06</v>
       </c>
       <c r="AB3">
-        <v>1.69</v>
+        <v>1.54</v>
       </c>
       <c r="AC3">
-        <v>7.3</v>
+        <v>7.9</v>
       </c>
       <c r="AD3">
-        <v>2.57</v>
+        <v>2.92</v>
       </c>
       <c r="AE3">
-        <v>1.2</v>
+        <v>1.37</v>
       </c>
       <c r="AF3">
-        <v>1.39</v>
+        <v>1.68</v>
       </c>
       <c r="AG3">
-        <v>1.69</v>
+        <v>2.14</v>
       </c>
       <c r="AH3">
-        <v>1.95</v>
+        <v>2.88</v>
       </c>
       <c r="AI3">
-        <v>2.88</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -1049,10 +1049,10 @@
         <v>2.3</v>
       </c>
       <c r="W4">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="X4">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="Y4">
         <v>1.87</v>
@@ -1108,13 +1108,13 @@
         <v>76</v>
       </c>
       <c r="G5">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I5">
-        <v>1.66</v>
+        <v>1.55</v>
       </c>
       <c r="J5">
         <v>1.04</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="6" spans="1:35">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" s="2">
         <v>45126</v>
@@ -1206,7 +1206,7 @@
         <v>45</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
         <v>57</v>
@@ -1215,96 +1215,96 @@
         <v>77</v>
       </c>
       <c r="G6">
-        <v>2.3</v>
+        <v>1.43</v>
       </c>
       <c r="H6">
-        <v>3.2</v>
+        <v>4.85</v>
       </c>
       <c r="I6">
-        <v>3.1</v>
+        <v>6.9</v>
       </c>
       <c r="J6">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K6">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="L6">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="M6">
-        <v>2.85</v>
+        <v>3.75</v>
       </c>
       <c r="N6">
-        <v>2.3</v>
+        <v>1.66</v>
       </c>
       <c r="O6">
-        <v>1.56</v>
+        <v>2.25</v>
       </c>
       <c r="P6">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="Q6">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="R6">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S6">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T6">
-        <v>1.3</v>
+        <v>1.12</v>
       </c>
       <c r="U6">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="V6">
-        <v>1.57</v>
+        <v>2.38</v>
       </c>
       <c r="W6">
-        <v>1</v>
+        <v>1.71</v>
       </c>
       <c r="X6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>2.91</v>
       </c>
       <c r="AB6">
-        <v>1.79</v>
+        <v>1.24</v>
       </c>
       <c r="AC6">
-        <v>7.7</v>
+        <v>12.7</v>
       </c>
       <c r="AD6">
-        <v>2.51</v>
+        <v>4.95</v>
       </c>
       <c r="AE6">
-        <v>1.23</v>
+        <v>1.08</v>
       </c>
       <c r="AF6">
-        <v>1.44</v>
+        <v>1.24</v>
       </c>
       <c r="AG6">
-        <v>1.95</v>
+        <v>1.43</v>
       </c>
       <c r="AH6">
-        <v>2.35</v>
+        <v>1.74</v>
       </c>
       <c r="AI6">
-        <v>3.25</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="7" spans="1:35">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="2">
         <v>45126</v>
@@ -1313,7 +1313,7 @@
         <v>45</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
         <v>58</v>
@@ -1322,13 +1322,13 @@
         <v>78</v>
       </c>
       <c r="G7">
-        <v>1.47</v>
+        <v>1.2</v>
       </c>
       <c r="H7">
-        <v>4.1</v>
+        <v>5.6</v>
       </c>
       <c r="I7">
-        <v>6.75</v>
+        <v>11</v>
       </c>
       <c r="J7">
         <v>1.05</v>
@@ -1343,70 +1343,70 @@
         <v>3.75</v>
       </c>
       <c r="N7">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="O7">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="P7">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="R7">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="S7">
-        <v>1.85</v>
+        <v>1.46</v>
       </c>
       <c r="T7">
-        <v>1.12</v>
+        <v>1.04</v>
       </c>
       <c r="U7">
-        <v>1.22</v>
+        <v>1.09</v>
       </c>
       <c r="V7">
-        <v>2.38</v>
+        <v>3.6</v>
       </c>
       <c r="W7">
-        <v>1.71</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>2.91</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>1.24</v>
+        <v>1.13</v>
       </c>
       <c r="AC7">
-        <v>12.7</v>
+        <v>16</v>
       </c>
       <c r="AD7">
-        <v>4.95</v>
+        <v>7.2</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AF7">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="AG7">
-        <v>1.43</v>
+        <v>1.98</v>
       </c>
       <c r="AH7">
-        <v>1.74</v>
+        <v>2.5</v>
       </c>
       <c r="AI7">
-        <v>2.23</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1429,76 +1429,76 @@
         <v>79</v>
       </c>
       <c r="G8">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="H8">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="I8">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="J8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="K8">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L8">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="M8">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="N8">
-        <v>1.76</v>
+        <v>1.44</v>
       </c>
       <c r="O8">
-        <v>1.96</v>
+        <v>2.65</v>
       </c>
       <c r="P8">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="Q8">
-        <v>3.05</v>
+        <v>3.8</v>
       </c>
       <c r="R8">
         <v>2.55</v>
       </c>
       <c r="S8">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="T8">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="U8">
+        <v>1.06</v>
+      </c>
+      <c r="V8">
+        <v>6</v>
+      </c>
+      <c r="W8">
+        <v>3</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
         <v>1.09</v>
       </c>
-      <c r="V8">
-        <v>3.6</v>
-      </c>
-      <c r="W8">
-        <v>1</v>
-      </c>
-      <c r="X8">
-        <v>1</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>1.13</v>
-      </c>
       <c r="AC8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AD8">
-        <v>7.2</v>
+        <v>9.9</v>
       </c>
       <c r="AE8">
         <v>1.26</v>
@@ -1507,7 +1507,7 @@
         <v>1.5</v>
       </c>
       <c r="AG8">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AH8">
         <v>2.5</v>
@@ -1536,91 +1536,91 @@
         <v>80</v>
       </c>
       <c r="G9">
-        <v>1.12</v>
+        <v>2.4</v>
       </c>
       <c r="H9">
+        <v>3.1</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>1.07</v>
+      </c>
+      <c r="K9">
         <v>7.5</v>
       </c>
-      <c r="I9">
-        <v>17</v>
-      </c>
-      <c r="J9">
-        <v>1.02</v>
-      </c>
-      <c r="K9">
-        <v>13</v>
-      </c>
       <c r="L9">
-        <v>1.15</v>
+        <v>1.4</v>
       </c>
       <c r="M9">
-        <v>4.75</v>
+        <v>2.85</v>
       </c>
       <c r="N9">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="O9">
-        <v>2.63</v>
+        <v>1.57</v>
       </c>
       <c r="P9">
+        <v>1.47</v>
+      </c>
+      <c r="Q9">
+        <v>2.45</v>
+      </c>
+      <c r="R9">
+        <v>1.95</v>
+      </c>
+      <c r="S9">
+        <v>1.8</v>
+      </c>
+      <c r="T9">
+        <v>1.3</v>
+      </c>
+      <c r="U9">
+        <v>1.28</v>
+      </c>
+      <c r="V9">
+        <v>1.57</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>1.79</v>
+      </c>
+      <c r="AC9">
+        <v>7.7</v>
+      </c>
+      <c r="AD9">
+        <v>2.51</v>
+      </c>
+      <c r="AE9">
         <v>1.23</v>
       </c>
-      <c r="Q9">
-        <v>3.8</v>
-      </c>
-      <c r="R9">
-        <v>2.55</v>
-      </c>
-      <c r="S9">
+      <c r="AF9">
         <v>1.44</v>
       </c>
-      <c r="T9">
-        <v>1.02</v>
-      </c>
-      <c r="U9">
-        <v>1.06</v>
-      </c>
-      <c r="V9">
-        <v>6</v>
-      </c>
-      <c r="W9">
-        <v>3</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>1.09</v>
-      </c>
-      <c r="AC9">
-        <v>15</v>
-      </c>
-      <c r="AD9">
-        <v>9.9</v>
-      </c>
-      <c r="AE9">
-        <v>1.26</v>
-      </c>
-      <c r="AF9">
-        <v>1.5</v>
-      </c>
       <c r="AG9">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AH9">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="AI9">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -1646,10 +1646,10 @@
         <v>1.11</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="I10">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J10">
         <v>1.02</v>
@@ -1664,10 +1664,10 @@
         <v>4.75</v>
       </c>
       <c r="N10">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="O10">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="P10">
         <v>1.28</v>
@@ -1750,13 +1750,13 @@
         <v>82</v>
       </c>
       <c r="G11">
-        <v>4.25</v>
+        <v>5</v>
       </c>
       <c r="H11">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="I11">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="J11">
         <v>1.01</v>
@@ -1771,10 +1771,10 @@
         <v>3.64</v>
       </c>
       <c r="N11">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="O11">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="P11">
         <v>1.35</v>
@@ -1857,10 +1857,10 @@
         <v>83</v>
       </c>
       <c r="G12">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="H12">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="I12">
         <v>9</v>
@@ -1878,10 +1878,10 @@
         <v>4</v>
       </c>
       <c r="N12">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O12">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="P12">
         <v>1.31</v>
@@ -1964,13 +1964,13 @@
         <v>84</v>
       </c>
       <c r="G13">
+        <v>3.3</v>
+      </c>
+      <c r="H13">
         <v>3.2</v>
       </c>
-      <c r="H13">
-        <v>3.1</v>
-      </c>
       <c r="I13">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J13">
         <v>1.09</v>
@@ -1988,7 +1988,7 @@
         <v>2.3</v>
       </c>
       <c r="O13">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="P13">
         <v>1.52</v>
@@ -2071,13 +2071,13 @@
         <v>85</v>
       </c>
       <c r="G14">
-        <v>1.45</v>
+        <v>2.09</v>
       </c>
       <c r="H14">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="I14">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="J14">
         <v>1.1</v>
@@ -2089,13 +2089,13 @@
         <v>1.44</v>
       </c>
       <c r="M14">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="N14">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="O14">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="P14">
         <v>1.5</v>
@@ -2104,58 +2104,58 @@
         <v>2.5</v>
       </c>
       <c r="R14">
-        <v>2.63</v>
+        <v>2</v>
       </c>
       <c r="S14">
-        <v>1.44</v>
+        <v>1.71</v>
       </c>
       <c r="T14">
-        <v>1.08</v>
+        <v>1.32</v>
       </c>
       <c r="U14">
+        <v>1.36</v>
+      </c>
+      <c r="V14">
+        <v>1.58</v>
+      </c>
+      <c r="W14">
+        <v>2</v>
+      </c>
+      <c r="X14">
         <v>1.25</v>
       </c>
-      <c r="V14">
-        <v>2.55</v>
-      </c>
-      <c r="W14">
-        <v>1.75</v>
-      </c>
-      <c r="X14">
-        <v>0.44</v>
-      </c>
       <c r="Y14">
-        <v>1.99</v>
+        <v>1.74</v>
       </c>
       <c r="Z14">
+        <v>1.33</v>
+      </c>
+      <c r="AA14">
+        <v>3.07</v>
+      </c>
+      <c r="AB14">
+        <v>1.6</v>
+      </c>
+      <c r="AC14">
+        <v>7.5</v>
+      </c>
+      <c r="AD14">
+        <v>2.9</v>
+      </c>
+      <c r="AE14">
+        <v>1.15</v>
+      </c>
+      <c r="AF14">
         <v>1.26</v>
       </c>
-      <c r="AA14">
-        <v>3.25</v>
-      </c>
-      <c r="AB14">
-        <v>1.2</v>
-      </c>
-      <c r="AC14">
-        <v>11</v>
-      </c>
-      <c r="AD14">
-        <v>5.75</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>1.2</v>
-      </c>
       <c r="AG14">
-        <v>1.33</v>
+        <v>1.49</v>
       </c>
       <c r="AH14">
-        <v>1.58</v>
+        <v>1.95</v>
       </c>
       <c r="AI14">
-        <v>1.98</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -2178,13 +2178,13 @@
         <v>86</v>
       </c>
       <c r="G15">
-        <v>2.2</v>
+        <v>1.42</v>
       </c>
       <c r="H15">
-        <v>2.85</v>
+        <v>4.15</v>
       </c>
       <c r="I15">
-        <v>3.25</v>
+        <v>7.4</v>
       </c>
       <c r="J15">
         <v>1.1</v>
@@ -2196,13 +2196,13 @@
         <v>1.44</v>
       </c>
       <c r="M15">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="N15">
         <v>2.35</v>
       </c>
       <c r="O15">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="P15">
         <v>1.5</v>
@@ -2211,58 +2211,58 @@
         <v>2.5</v>
       </c>
       <c r="R15">
-        <v>2</v>
+        <v>2.63</v>
       </c>
       <c r="S15">
-        <v>1.71</v>
+        <v>1.44</v>
       </c>
       <c r="T15">
-        <v>1.32</v>
+        <v>1.08</v>
       </c>
       <c r="U15">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="V15">
+        <v>2.55</v>
+      </c>
+      <c r="W15">
+        <v>1.75</v>
+      </c>
+      <c r="X15">
+        <v>0.44</v>
+      </c>
+      <c r="Y15">
+        <v>1.99</v>
+      </c>
+      <c r="Z15">
+        <v>1.26</v>
+      </c>
+      <c r="AA15">
+        <v>3.25</v>
+      </c>
+      <c r="AB15">
+        <v>1.2</v>
+      </c>
+      <c r="AC15">
+        <v>11</v>
+      </c>
+      <c r="AD15">
+        <v>5.75</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>1.2</v>
+      </c>
+      <c r="AG15">
+        <v>1.33</v>
+      </c>
+      <c r="AH15">
         <v>1.58</v>
       </c>
-      <c r="W15">
-        <v>2</v>
-      </c>
-      <c r="X15">
-        <v>1.25</v>
-      </c>
-      <c r="Y15">
-        <v>1.74</v>
-      </c>
-      <c r="Z15">
-        <v>1.33</v>
-      </c>
-      <c r="AA15">
-        <v>3.07</v>
-      </c>
-      <c r="AB15">
-        <v>1.6</v>
-      </c>
-      <c r="AC15">
-        <v>7.5</v>
-      </c>
-      <c r="AD15">
-        <v>2.9</v>
-      </c>
-      <c r="AE15">
-        <v>1.15</v>
-      </c>
-      <c r="AF15">
-        <v>1.26</v>
-      </c>
-      <c r="AG15">
-        <v>1.49</v>
-      </c>
-      <c r="AH15">
-        <v>1.95</v>
-      </c>
       <c r="AI15">
-        <v>2.4</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -2306,10 +2306,10 @@
         <v>3.63</v>
       </c>
       <c r="N16">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="O16">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="P16">
         <v>1.36</v>
@@ -2392,13 +2392,13 @@
         <v>88</v>
       </c>
       <c r="G17">
-        <v>2.35</v>
+        <v>1.77</v>
       </c>
       <c r="H17">
-        <v>2.85</v>
+        <v>3.4</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="J17">
         <v>1.1</v>
@@ -2407,16 +2407,16 @@
         <v>6.5</v>
       </c>
       <c r="L17">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M17">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="N17">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O17">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="P17">
         <v>1.53</v>
@@ -2425,58 +2425,58 @@
         <v>2.38</v>
       </c>
       <c r="R17">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="S17">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="T17">
-        <v>1.36</v>
+        <v>1.15</v>
       </c>
       <c r="U17">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="V17">
-        <v>1.52</v>
+        <v>2.05</v>
       </c>
       <c r="W17">
-        <v>1.25</v>
+        <v>2.78</v>
       </c>
       <c r="X17">
-        <v>1.56</v>
+        <v>1.44</v>
       </c>
       <c r="Y17">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="Z17">
-        <v>1.74</v>
+        <v>1.3</v>
       </c>
       <c r="AA17">
-        <v>3.3</v>
+        <v>2.91</v>
       </c>
       <c r="AB17">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="AC17">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD17">
-        <v>2.75</v>
+        <v>4.33</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AF17">
-        <v>1.23</v>
+        <v>1.42</v>
       </c>
       <c r="AG17">
-        <v>1.43</v>
+        <v>1.83</v>
       </c>
       <c r="AH17">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="AI17">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="18" spans="1:35">
@@ -2499,91 +2499,91 @@
         <v>89</v>
       </c>
       <c r="G18">
-        <v>1.65</v>
+        <v>2.21</v>
       </c>
       <c r="H18">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I18">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="J18">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K18">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L18">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="M18">
-        <v>2.62</v>
+        <v>2.4</v>
       </c>
       <c r="N18">
-        <v>2.33</v>
+        <v>2.45</v>
       </c>
       <c r="O18">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="P18">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q18">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R18">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="S18">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="T18">
-        <v>1.15</v>
+        <v>1.31</v>
       </c>
       <c r="U18">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="V18">
-        <v>2.05</v>
+        <v>1.58</v>
       </c>
       <c r="W18">
-        <v>2.78</v>
+        <v>0.75</v>
       </c>
       <c r="X18">
-        <v>1.44</v>
+        <v>0.88</v>
       </c>
       <c r="Y18">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="Z18">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AA18">
-        <v>2.91</v>
+        <v>2.84</v>
       </c>
       <c r="AB18">
-        <v>1.33</v>
+        <v>1.55</v>
       </c>
       <c r="AC18">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD18">
-        <v>4.33</v>
+        <v>3.1</v>
       </c>
       <c r="AE18">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="AF18">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="AG18">
-        <v>1.83</v>
+        <v>1.63</v>
       </c>
       <c r="AH18">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="AI18">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -2606,91 +2606,91 @@
         <v>90</v>
       </c>
       <c r="G19">
-        <v>2.2</v>
+        <v>2.42</v>
       </c>
       <c r="H19">
-        <v>2.85</v>
+        <v>3.05</v>
       </c>
       <c r="I19">
-        <v>3.25</v>
+        <v>2.97</v>
       </c>
       <c r="J19">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K19">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L19">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="M19">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="N19">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O19">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="P19">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q19">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R19">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S19">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T19">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="U19">
         <v>1.37</v>
       </c>
       <c r="V19">
-        <v>1.58</v>
+        <v>1.52</v>
       </c>
       <c r="W19">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="X19">
-        <v>0.88</v>
+        <v>1.56</v>
       </c>
       <c r="Y19">
-        <v>1.64</v>
+        <v>1.56</v>
       </c>
       <c r="Z19">
-        <v>1.2</v>
+        <v>1.74</v>
       </c>
       <c r="AA19">
-        <v>2.84</v>
+        <v>3.3</v>
       </c>
       <c r="AB19">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AC19">
         <v>7.5</v>
       </c>
       <c r="AD19">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="AE19">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="AF19">
-        <v>1.35</v>
+        <v>1.23</v>
       </c>
       <c r="AG19">
-        <v>1.63</v>
+        <v>1.43</v>
       </c>
       <c r="AH19">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="AI19">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -2713,13 +2713,13 @@
         <v>91</v>
       </c>
       <c r="G20">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="H20">
-        <v>2.85</v>
+        <v>2.97</v>
       </c>
       <c r="I20">
-        <v>2.75</v>
+        <v>3.05</v>
       </c>
       <c r="J20">
         <v>1.1</v>
@@ -2734,10 +2734,10 @@
         <v>2.48</v>
       </c>
       <c r="N20">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="O20">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="P20">
         <v>1.57</v>
@@ -2820,13 +2820,13 @@
         <v>92</v>
       </c>
       <c r="G21">
-        <v>1.9</v>
+        <v>1.58</v>
       </c>
       <c r="H21">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="I21">
-        <v>3.8</v>
+        <v>4.95</v>
       </c>
       <c r="J21">
         <v>1.05</v>
@@ -2841,10 +2841,10 @@
         <v>3.25</v>
       </c>
       <c r="N21">
-        <v>2.4</v>
+        <v>2.01</v>
       </c>
       <c r="O21">
-        <v>1.58</v>
+        <v>1.79</v>
       </c>
       <c r="P21">
         <v>1.39</v>
